--- a/website/everyday-update/data/881001.xlsx
+++ b/website/everyday-update/data/881001.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1531"/>
+  <dimension ref="A1:D1532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21805,6 +21805,20 @@
         <v>0.1668839972806704</v>
       </c>
     </row>
+    <row r="1532" spans="1:4">
+      <c r="A1532" s="2">
+        <v>42934.00000005787</v>
+      </c>
+      <c r="B1532">
+        <v>60.23644119439366</v>
+      </c>
+      <c r="C1532">
+        <v>-0.0945722304963079</v>
+      </c>
+      <c r="D1532">
+        <v>0.2204063645035162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
